--- a/Locations.xlsx
+++ b/Locations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johngarrett/Documents/Programming/SpellAlgorithm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EF19E1-8CCB-E84C-AB8D-006601F40B3D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865495F1-8644-D844-9D12-AE9A78CAB5E9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9780" yWindow="860" windowWidth="22660" windowHeight="17440" xr2:uid="{432B2556-845F-7646-9634-3A70616F899C}"/>
   </bookViews>
